--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1058.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1058.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.266352918157801</v>
+        <v>1.08963680267334</v>
       </c>
       <c r="B1">
-        <v>2.682502556565612</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.790904936596777</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.567649736935252</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.508515447209348</v>
+        <v>1.029199004173279</v>
       </c>
     </row>
   </sheetData>
